--- a/data/Excel/EDward_Gaming_and_All_Gamers_stats.xlsx
+++ b/data/Excel/EDward_Gaming_and_All_Gamers_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="O5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="O6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="O7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -828,28 +828,48 @@
           <t>Muggle</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v/>
-      </c>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v/>
-      </c>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -923,10 +943,10 @@
         </is>
       </c>
       <c r="O9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1001,10 +1021,10 @@
         </is>
       </c>
       <c r="O10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1019,10 +1039,10 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1055,10 +1075,10 @@
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
@@ -1093,10 +1113,10 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -1129,10 +1149,10 @@
         </is>
       </c>
       <c r="K12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
@@ -1167,10 +1187,10 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1203,10 +1223,10 @@
         </is>
       </c>
       <c r="K13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
@@ -1241,10 +1261,10 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
@@ -1277,10 +1297,10 @@
         </is>
       </c>
       <c r="K14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
@@ -1315,10 +1335,10 @@
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
@@ -1351,10 +1371,10 @@
         </is>
       </c>
       <c r="K15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
